--- a/2025_2026/BoxScores/March.xlsx
+++ b/2025_2026/BoxScores/March.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2025_2026\BoxScores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B47065-52F1-4F0B-A75B-749080395D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3634FD14-E4B2-4806-B6F0-FE8A2B4D2851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{7901B5C0-98B5-4042-9E0B-86E022D78A84}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="133">
   <si>
     <t>Winnipeg Jets</t>
   </si>
@@ -1555,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDEF849-6B0F-458D-8EAD-6A89EFDD04B5}">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,41 +1613,51 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1656,14 +1666,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{418FE5CE-B326-4FF9-AEA8-65D325E71BFD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E7" xr:uid="{418FE5CE-B326-4FF9-AEA8-65D325E71BFD}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{B32CC84D-FC23-473F-A9BF-8E63641F5B9B}"/>
-    <hyperlink ref="A7" location="'Offense (3-9-26)'!A1" display="Offense" xr:uid="{A3AC1636-66E0-44DC-A99B-E554E1EEEACE}"/>
-    <hyperlink ref="A8" location="'Goalies (3-9-26)'!A1" display="Goalies" xr:uid="{A41B2799-5AC3-4FD6-BAA1-A769B5E147E7}"/>
+    <hyperlink ref="A8" location="'Offense (3-9-26)'!A1" display="Offense" xr:uid="{A3AC1636-66E0-44DC-A99B-E554E1EEEACE}"/>
+    <hyperlink ref="A9" location="'Goalies (3-9-26)'!A1" display="Goalies" xr:uid="{A41B2799-5AC3-4FD6-BAA1-A769B5E147E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1673,7 +1683,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C6 A3:A6</xm:sqref>
+          <xm:sqref>C3:C7 A3:A7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
